--- a/change_history.xlsx
+++ b/change_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,27 +473,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Double Room</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -501,11 +497,7 @@
           <t>Double Room</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>4</v>
       </c>
@@ -513,12 +505,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,73 +524,73 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Triple Room</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,45 +598,49 @@
           <t>5</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -659,137 +655,133 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -802,19 +794,17 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -824,22 +814,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -852,19 +840,17 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -882,12 +868,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -905,192 +891,190 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>5</v>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-04-28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1105,179 +1089,187 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Double Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Double Room</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Double Room</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1285,20 +1277,24 @@
           <t>Double Room</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1306,7 +1302,11 @@
           <t>Double Room</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E36" t="n">
         <v>4</v>
       </c>
@@ -1314,22 +1314,485 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Triple Room</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-07-02</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Triple Room</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-08-04</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Triple Room</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-10-11</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-10-12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-10-13</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-10-14</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-10-15</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-10-16</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-10-14</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-10-15</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-10-16</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-10-31</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-11-01</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-11-02</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-11-03</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2027-01-07</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2027-01-07</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2027-01-07</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Double Room</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>5</v>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2027-01-07</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Triple Room</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
